--- a/guide41_rating.xlsx
+++ b/guide41_rating.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E66B6-3A3C-463A-A354-C569275013CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F098961-09EB-4D32-9629-EB27EA3EAA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="17" r:id="rId1"/>
+    <sheet name="index" sheetId="18" r:id="rId1"/>
+    <sheet name="p1" sheetId="17" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>header1</t>
   </si>
@@ -51,12 +52,40 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>評定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _評定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定&lt;/h3&gt;&lt;br&gt;
+要編集&lt;br &gt;</t>
+    <rPh sb="16" eb="19">
+      <t>ヨウヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +135,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +192,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,11 +513,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD9A61F-78AA-4029-9167-AD38E61E4239}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -497,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
@@ -586,6 +692,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -603,7 +718,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -852,16 +967,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -872,7 +986,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -889,12 +1003,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_rating.xlsx
+++ b/guide41_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F098961-09EB-4D32-9629-EB27EA3EAA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB831D54-E086-4908-83B2-81CF35EB14B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="18" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD9A61F-78AA-4029-9167-AD38E61E4239}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -692,33 +692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -967,26 +940,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1003,4 +984,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_rating.xlsx
+++ b/guide41_rating.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB831D54-E086-4908-83B2-81CF35EB14B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A0CD11-AD68-495C-AD38-49AC3CADA426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="18" r:id="rId1"/>
     <sheet name="p1" sheetId="17" r:id="rId2"/>
+    <sheet name="p2" sheetId="20" r:id="rId3"/>
+    <sheet name="p3" sheetId="21" r:id="rId4"/>
+    <sheet name="p4" sheetId="23" r:id="rId5"/>
+    <sheet name="p5" sheetId="24" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>header1</t>
   </si>
@@ -35,9 +39,6 @@
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>fresta</t>
@@ -57,10 +58,6 @@
   </si>
   <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>評定</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _評定</t>
@@ -74,10 +71,383 @@
   </si>
   <si>
     <t>&lt;h3&gt;評定&lt;/h3&gt;&lt;br&gt;
-要編集&lt;br &gt;</t>
-    <rPh sb="16" eb="19">
-      <t>ヨウヘンシュウ</t>
+【一部編集中です】
+moodle 上の学習データの評定を確認します。
+ナビゲーションドロワーの［評定］をクリックします。
+［評価者レポート］画面が表示され、学生一覧が表示されます。画面に入りきらない場合、
+左にスクロールすると課題、小テストの評価が一覧で確認できます。&lt;br &gt;</t>
+    <rPh sb="17" eb="19">
+      <t>イチブ</t>
     </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タブ別に解説します</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評定を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評定の集計や表示を設定する</t>
+    <rPh sb="3" eb="5">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating1_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating1_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating1_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating1_4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating1_5.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating2_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating2_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating2_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価尺度を設定する</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評定をインポートする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評定をエクスポートする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="export"&gt;&lt;/a&gt;エクスポート&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating3_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating3_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating3_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating4_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rating5_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="singleview"&gt;&lt;/a&gt;シングルビュー&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>［評定項目］、［ユーザを選択する］を選択して表示します</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="report"&gt;&lt;/a&gt;評定者レポート&lt;/h3&gt;評定者（学生）一覧が表示されます&lt;br&gt;参加者人数も表示されます &lt;br&gt;評定者一覧表の上部のコース名の横の－をクリックすると表示方法を変更できます&lt;br&gt;例）表示を評点のみにした場合</t>
+    <rPh sb="127" eb="129">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="outcome"&gt;&lt;/a&gt;アウトカムレポート&lt;/h3&gt;&lt;br&gt;アウトカムレポートを有効にしている場合、アウトカム評価の一覧が表示されます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="abstract"&gt;&lt;/a&gt;概要レポート&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ毎、コース毎にレポートを表示します。&lt;br&gt;ユーザを選択すると、選択したユーザの評点が一覧に表示されます&lt;br&gt;コース名をクリックすると、コースに登録されているユーザ毎に評価一覧が表示されます&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コース名をクリックして表示される画面は［ユーザレポート］が表示されます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a name="userreport"&gt;&lt;/a&gt;ユーザレポート&lt;/h3&gt;ユーザ毎にレポートを表示します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>［すべてまたは 1 ユーザを選択する］でユーザ名もしくは［すべてのユーザ］を選択します&lt;br&gt;例）ユーザを選択した画面です&lt;br&gt;選択したユーザが左上に表示されています</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="setup"&gt;&lt;/a&gt;設定表セットアップ&lt;/h3&gt;評定表にカテゴリを追加し、カテゴリ毎に集計を行えます&lt;br&gt;さらに、カテゴリの評定値を元に全体の集計を行えます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="ratingsetting"&gt;&lt;/a&gt;コース評定設定&lt;/h3&gt;すべてのユーザに対して評定表がどのように表示されるか決定します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="prefarence"&gt;&lt;/a&gt;プリファレンス：評定者レポート&lt;/h3&gt;評価者レポートの表示設定を行います</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="custom"&gt;&lt;/a&gt;カスタム評定尺度とは&lt;/h3&gt;カスタム評価尺度は、そのコースのみで利用可能な評価尺度です&lt;br&gt;評価尺度を設定しない場合は設定する必要はありません&lt;br&gt;新しい評価尺度を追加する場合、[新しい評価尺度を追加する]ボタンをクリックします&lt;br&gt;評価尺度はマイナスからプラス方向に、カンマ(,)で区切られた数値もしくはテキストのならびになります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="letter"&gt;&lt;/a&gt;文字&lt;/h3&gt;評定文字は、A,B,C などの文字グレードによる成績評価に使用します&lt;br&gt;使用する文字と対応する評点の範囲を変更することができます&lt;br&gt;変更した設定はこのコースのみで有効になります&lt;br&gt;設定文字を使用しない場合、編集する必要はありません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="inport"&gt;&lt;/a&gt;インポート&lt;/h3&gt;評定表をインポートできます&lt;br&gt; ※ 必ずエクスポートした評定ファイルに基づいて作業してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［サイトデフォルトをオーバライドする］をクリックすると編集可能になります。編集したい箇所を変更し、［変更を保存］をクリックして完了してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［編集］タブをクリックもしくは、［評定文字を編集する］をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="csv"&gt;&lt;/a&gt;CSV ファイル&lt;/h3&gt;インポートできるファイルはカンマ区切りの csv ファイルもしくはテキストファイルのみです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="xml"&gt;&lt;/a&gt;XML ファイル&lt;/h3&gt;XML ファイルのみインポートできます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リモートファイル URL は、学生情報等リモートサーバがある場合に設定します</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="sheet"&gt;&lt;/a&gt;スプレッドシートから貼り付ける&lt;/h3&gt;Excel もしくは csv ファイルのデータをコピーしてデータを貼り付けアップロードします&lt;br&gt;データを貼り付け後、必要項目を設定します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設定後［評定をアップロード］ボタンをクリックします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="export"&gt;&lt;/a&gt;エクスポート&lt;/h3&gt;評定表をエクスポートします&lt;br&gt;評定表のアップロードの際、エクスポートしたファイルを 元に作成します&lt;br&gt;ダウンロードするファイルタイプを選択します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="export"&gt;&lt;/a&gt;OpenDocument スプレッドシート、プレインテキストファイル、Excel スプレッドシー
+ト&lt;/h3&gt;OpenDocument スプレッドシート、プレインテキストファイル、Excel スプレッドシートはすべて次の画面になります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ダウンロードに必要な項目にチェックを入れ、［ダウンロード］ボタンをクリックすると、ダウンロードします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="xml"&gt;&lt;/a&gt;XMLファイル&lt;/h3&gt;XML ファイルをエクスポートします&lt;br&gt;※ 小テストや課題に ID ナンバーがない場合はエクスポートできません</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -85,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +512,33 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,9 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -199,6 +593,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +923,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -527,46 +933,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>5</v>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" ht="54">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27">
-      <c r="B6" s="10" t="s">
-        <v>11</v>
+    <row r="6" spans="1:2" ht="108">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -577,112 +983,685 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="90" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="90" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="8"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="69.75" customHeight="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
+    <row r="7" spans="1:4" ht="56.25">
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="69.75">
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="32.25">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="45.75">
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36955915-6D3F-496F-8618-1CDF638285C3}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="90" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="37.5">
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="37.5">
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="B14" s="6"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" ht="18.75">
+      <c r="B17" s="6"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A4B808-7E72-4E82-B10C-34396C5EC1FA}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="90" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="75">
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="56.25">
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" ht="37.5">
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
+      <c r="B12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="B15" s="6"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C4A115-5392-4B1E-9764-9D3940BDC020}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="100.625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="45.75">
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="32.25">
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B6EF58-3377-455D-91D2-629201CB6592}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="90" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="72.75">
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="7"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="7"/>
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -692,6 +1671,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -940,24 +1937,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -968,6 +1947,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -986,17 +1976,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_rating.xlsx
+++ b/guide41_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A0CD11-AD68-495C-AD38-49AC3CADA426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB683CB5-981F-4558-81A7-B201697229EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="18" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>header1</t>
   </si>
@@ -68,21 +68,6 @@
       <t>キョウショクイン</t>
     </rPh>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;評定&lt;/h3&gt;&lt;br&gt;
-【一部編集中です】
-moodle 上の学習データの評定を確認します。
-ナビゲーションドロワーの［評定］をクリックします。
-［評価者レポート］画面が表示され、学生一覧が表示されます。画面に入りきらない場合、
-左にスクロールすると課題、小テストの評価が一覧で確認できます。&lt;br &gt;</t>
-    <rPh sb="17" eb="19">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>各タブ別に解説します</t>
@@ -448,6 +433,31 @@
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="xml"&gt;&lt;/a&gt;XMLファイル&lt;/h3&gt;XML ファイルをエクスポートします&lt;br&gt;※ 小テストや課題に ID ナンバーがない場合はエクスポートできません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定&lt;/h3&gt;
+【一部編集中です】</t>
+    <rPh sb="13" eb="15">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［評価者レポート］画面が表示され、学生一覧が表示されます
+画面に入りきらない場合、左にスクロールすると課題、小テストの評価が一覧で確認できます
+各タブ別に解説します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moodle 上の学習データの評定を確認します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションドロワーの［評定］をクリックします。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -923,7 +933,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -966,9 +976,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="108">
+    <row r="6" spans="1:2" ht="27">
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -983,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1001,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="7"/>
@@ -1026,108 +1036,130 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="56.25">
-      <c r="B7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" spans="1:4" ht="54">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="56.25">
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="69.75">
+      <c r="B14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="69.75">
-      <c r="B11" s="6" t="s">
+    <row r="15" spans="1:4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="32.25">
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="45.75">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="32.25">
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="45.75">
-      <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="6"/>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1141,7 +1173,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1156,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="7"/>
@@ -1183,15 +1215,15 @@
     </row>
     <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
@@ -1203,13 +1235,13 @@
     </row>
     <row r="7" spans="1:4" ht="37.5">
       <c r="B7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1218,13 +1250,13 @@
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="B9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1234,13 +1266,13 @@
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1293,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A4B808-7E72-4E82-B10C-34396C5EC1FA}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1309,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="7"/>
@@ -1348,13 +1380,13 @@
     </row>
     <row r="6" spans="1:4" ht="75">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1363,25 +1395,25 @@
     </row>
     <row r="8" spans="1:4" ht="56.25">
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="37.5">
       <c r="B10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1393,13 +1425,13 @@
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="B12" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1468,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="7"/>
@@ -1507,13 +1539,13 @@
     </row>
     <row r="6" spans="1:4" ht="18.75">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1523,7 +1555,7 @@
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1535,7 +1567,7 @@
     </row>
     <row r="10" spans="1:4" ht="45.75">
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1545,7 +1577,7 @@
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1559,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B6EF58-3377-455D-91D2-629201CB6592}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1575,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="7"/>
@@ -1614,20 +1646,20 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1637,7 +1669,7 @@
     </row>
     <row r="9" spans="1:4" ht="72.75">
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1649,7 +1681,7 @@
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1671,21 +1703,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1938,21 +1961,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1977,9 +2006,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_rating.xlsx
+++ b/guide41_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7F130-8577-47FD-B0DC-34AD5F324462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49DE5B6-90A9-4703-BE9F-652CACA066AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="18" r:id="rId1"/>
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD9A61F-78AA-4029-9167-AD38E61E4239}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1483,479 +1483,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36955915-6D3F-496F-8618-1CDF638285C3}">
   <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="90" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="37.5">
-      <c r="B8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="37.5">
-      <c r="B10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="27">
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="6"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="11"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="6"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A4B808-7E72-4E82-B10C-34396C5EC1FA}">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="90" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="27">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="56.25">
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="56.25">
-      <c r="B10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="37.5">
-      <c r="B13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75">
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
-      <c r="B18" s="6"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75">
-      <c r="B21" s="6"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C4A115-5392-4B1E-9764-9D3940BDC020}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="100.625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="37.5">
-      <c r="B5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="54">
-      <c r="B8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B6EF58-3377-455D-91D2-629201CB6592}">
-  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1972,6 +1499,479 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="37.5">
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="37.5">
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="B15" s="6"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A4B808-7E72-4E82-B10C-34396C5EC1FA}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="90" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="27">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="56.25">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="56.25">
+      <c r="B10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="37.5">
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75">
+      <c r="B21" s="6"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C4A115-5392-4B1E-9764-9D3940BDC020}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="100.625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="37.5">
+      <c r="B5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54">
+      <c r="B8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B6EF58-3377-455D-91D2-629201CB6592}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="90" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
@@ -2060,21 +2060,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2327,21 +2318,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2366,9 +2363,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>